--- a/cmip6/models/noresm2-mm/cmip6_ncc_noresm2-mm_aerosol.xlsx
+++ b/cmip6/models/noresm2-mm/cmip6_ncc_noresm2-mm_aerosol.xlsx
@@ -8,20 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Transport" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Emissions" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Concentrations" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Optical Radiative Properties" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Model" sheetId="8" r:id="rId8"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Emissions" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Concentrations" sheetId="7" r:id="rId7"/>
+    <sheet name="7. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
+    <sheet name="8. Model" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="517">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -53,25 +54,34 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Transport</t>
-  </si>
-  <si>
-    <t>4. Emissions</t>
-  </si>
-  <si>
-    <t>5. Concentrations</t>
-  </si>
-  <si>
-    <t>6. Optical Radiative Properties</t>
-  </si>
-  <si>
-    <t>7. Model</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Transport</t>
+  </si>
+  <si>
+    <t>5. Emissions</t>
+  </si>
+  <si>
+    <t>6. Concentrations</t>
+  </si>
+  <si>
+    <t>7. Optical Radiative Properties</t>
+  </si>
+  <si>
+    <t>8. Model</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -86,31 +96,58 @@
     <t>1.0.2</t>
   </si>
   <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Key properties of the aerosol model</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of aerosol model code</t>
   </si>
   <si>
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -125,7 +162,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -140,7 +177,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.1.4 *</t>
+    <t>2.1.4 *</t>
   </si>
   <si>
     <t>Scheme Scope</t>
@@ -155,9 +192,6 @@
     <t>cmip6.aerosol.key_properties.scheme_scope</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Troposphere</t>
   </si>
   <si>
@@ -173,7 +207,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.1.5 *</t>
+    <t>2.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -185,7 +219,7 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>1.1.6 *</t>
+    <t>2.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -203,7 +237,7 @@
     <t>3D number concentration for aerosols</t>
   </si>
   <si>
-    <t>1.1.7 *</t>
+    <t>2.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -218,7 +252,7 @@
     <t>cmip6.aerosol.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>1.1.8 *</t>
+    <t>2.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -233,7 +267,7 @@
     <t>cmip6.aerosol.key_properties.family_approach</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -242,7 +276,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -254,7 +288,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2 </t>
+    <t xml:space="preserve">2.2.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -266,7 +300,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3 </t>
+    <t xml:space="preserve">2.2.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -278,7 +312,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -287,7 +321,7 @@
     <t>Physical properties of seawater in ocean</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of physical properties of seawater in ocean in aerosol model.</t>
@@ -296,7 +330,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -317,7 +351,7 @@
     <t>Specific timestepping (integrated)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -329,7 +363,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.4 </t>
+    <t xml:space="preserve">2.3.4 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -341,7 +375,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t>1.3.5 *</t>
+    <t>2.3.5 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -353,7 +387,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>1.3.6 *</t>
+    <t>2.3.6 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -389,13 +423,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Meteorological Forcings</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Overview of  in aerosol model.</t>
@@ -404,7 +438,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2 </t>
+    <t xml:space="preserve">2.4.2 </t>
   </si>
   <si>
     <t>Variables 3D</t>
@@ -416,7 +450,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.3 </t>
+    <t xml:space="preserve">2.4.3 </t>
   </si>
   <si>
     <t>Variables 2D</t>
@@ -428,7 +462,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.4 </t>
+    <t xml:space="preserve">2.4.4 </t>
   </si>
   <si>
     <t>Frequency</t>
@@ -440,7 +474,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.frequency</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -449,7 +483,7 @@
     <t>Resolution in the aerosol model grid</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the aerosol model grid in aerosol model.</t>
@@ -458,7 +492,7 @@
     <t>cmip6.aerosol.key_properties.resolution.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -467,7 +501,7 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.3 </t>
+    <t xml:space="preserve">2.5.3 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -479,7 +513,7 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4 </t>
+    <t xml:space="preserve">2.5.4 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -491,7 +525,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.5 </t>
+    <t xml:space="preserve">2.5.5 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -503,7 +537,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>1.5.6 *</t>
+    <t>2.5.6 *</t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -515,7 +549,7 @@
     <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>1.6</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -524,7 +558,7 @@
     <t>Tuning methodology for aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.1 </t>
+    <t xml:space="preserve">2.6.1 </t>
   </si>
   <si>
     <t>Overview of tuning methodology for aerosol model in aerosol model.</t>
@@ -533,7 +567,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.6.2 *</t>
+    <t>2.6.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -545,7 +579,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.3 </t>
+    <t xml:space="preserve">2.6.3 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -557,7 +591,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.4 </t>
+    <t xml:space="preserve">2.6.4 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -569,7 +603,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6.5 </t>
+    <t xml:space="preserve">2.6.5 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -581,7 +615,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -590,7 +624,7 @@
     <t>Aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in aerosol model.</t>
@@ -599,7 +633,7 @@
     <t>cmip6.aerosol.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in aerosol model.</t>
@@ -608,7 +642,7 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>3.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -620,7 +654,7 @@
     <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -629,7 +663,7 @@
     <t>Resolution in the atmospheric aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the atmospheric aerosol grid in aerosol model.</t>
@@ -638,13 +672,13 @@
     <t>cmip6.aerosol.grid.resolution.overview</t>
   </si>
   <si>
-    <t>2.2.2 *</t>
+    <t>3.2.2 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">3.2.3 </t>
   </si>
   <si>
     <t>Expression quoted for gross comparisons of resolution, e.g. 50km or 0.1 degrees etc.</t>
@@ -653,19 +687,19 @@
     <t>cmip6.aerosol.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.4 </t>
+    <t xml:space="preserve">3.2.4 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.5 </t>
+    <t xml:space="preserve">3.2.5 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>2.2.6 *</t>
+    <t>3.2.6 *</t>
   </si>
   <si>
     <t>Set to true if grid resolution changes during execution.</t>
@@ -674,7 +708,7 @@
     <t>cmip6.aerosol.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -683,7 +717,7 @@
     <t>Aerosol transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in aerosol model.</t>
@@ -692,7 +726,7 @@
     <t>cmip6.aerosol.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol transport in aerosol model.</t>
@@ -701,7 +735,7 @@
     <t>cmip6.aerosol.transport.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -728,7 +762,7 @@
     <t>Specific transport scheme (lagrangian)</t>
   </si>
   <si>
-    <t>3.1.4 *</t>
+    <t>4.1.4 *</t>
   </si>
   <si>
     <t>Mass Conservation Scheme</t>
@@ -749,7 +783,7 @@
     <t>Gradients monotonicity</t>
   </si>
   <si>
-    <t>3.1.5 *</t>
+    <t>4.1.5 *</t>
   </si>
   <si>
     <t>Convention</t>
@@ -767,7 +801,7 @@
     <t>Vertical velocities connected to tracers</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Emissions</t>
@@ -776,7 +810,7 @@
     <t>Atmospheric aerosol emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions in aerosol model.</t>
@@ -785,7 +819,7 @@
     <t>cmip6.aerosol.emissions.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
@@ -794,7 +828,7 @@
     <t>cmip6.aerosol.emissions.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>5.1.3 *</t>
   </si>
   <si>
     <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
@@ -821,7 +855,7 @@
     <t>Interactive above surface</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.4 </t>
+    <t xml:space="preserve">5.1.4 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -857,7 +891,7 @@
     <t>Anthropogenic</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.5 </t>
+    <t xml:space="preserve">5.1.5 </t>
   </si>
   <si>
     <t>Prescribed Climatology</t>
@@ -884,7 +918,7 @@
     <t>Daily</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.6 </t>
+    <t xml:space="preserve">5.1.6 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -896,7 +930,7 @@
     <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.7 </t>
+    <t xml:space="preserve">5.1.7 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -908,7 +942,7 @@
     <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.8 </t>
+    <t xml:space="preserve">5.1.8 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -920,7 +954,7 @@
     <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.9 </t>
+    <t xml:space="preserve">5.1.9 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -932,7 +966,7 @@
     <t>cmip6.aerosol.emissions.other_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.10 </t>
+    <t xml:space="preserve">5.1.10 </t>
   </si>
   <si>
     <t>Other Method Characteristics</t>
@@ -944,7 +978,7 @@
     <t>cmip6.aerosol.emissions.other_method_characteristics</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Concentrations</t>
@@ -953,7 +987,7 @@
     <t>Atmospheric aerosol concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the concentrations in aerosol model.</t>
@@ -962,7 +996,7 @@
     <t>cmip6.aerosol.concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
@@ -971,7 +1005,7 @@
     <t>cmip6.aerosol.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.3 </t>
+    <t xml:space="preserve">6.1.3 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -983,7 +1017,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.4 </t>
+    <t xml:space="preserve">6.1.4 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -995,7 +1029,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.5 </t>
+    <t xml:space="preserve">6.1.5 </t>
   </si>
   <si>
     <t>Prescribed Fields Mmr</t>
@@ -1007,7 +1041,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.6 </t>
+    <t xml:space="preserve">6.1.6 </t>
   </si>
   <si>
     <t>Prescribed Fields Aod Plus Ccn</t>
@@ -1019,7 +1053,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties</t>
@@ -1028,7 +1062,7 @@
     <t>Aerosol optical and radiative properties</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">7.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the optical radiative properties in aerosol model.</t>
@@ -1037,7 +1071,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">7.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
@@ -1046,7 +1080,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.overview</t>
   </si>
   <si>
-    <t>6.2</t>
+    <t>7.2</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Absorption</t>
@@ -1055,7 +1089,7 @@
     <t>Absortion properties in aerosol scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.1 </t>
+    <t xml:space="preserve">7.2.1 </t>
   </si>
   <si>
     <t>Overview of absortion properties in aerosol scheme in aerosol model.</t>
@@ -1064,7 +1098,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.2 </t>
+    <t xml:space="preserve">7.2.2 </t>
   </si>
   <si>
     <t>Black Carbon</t>
@@ -1079,7 +1113,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.3 </t>
+    <t xml:space="preserve">7.2.3 </t>
   </si>
   <si>
     <t>Dust</t>
@@ -1091,7 +1125,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2.4 </t>
+    <t xml:space="preserve">7.2.4 </t>
   </si>
   <si>
     <t>Organics</t>
@@ -1103,19 +1137,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
   </si>
   <si>
-    <t>6.3</t>
+    <t>7.3</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Mixtures</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.1 </t>
+    <t xml:space="preserve">7.3.1 </t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.overview</t>
   </si>
   <si>
-    <t>6.3.2 *</t>
+    <t>7.3.2 *</t>
   </si>
   <si>
     <t>External</t>
@@ -1127,7 +1161,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
   </si>
   <si>
-    <t>6.3.3 *</t>
+    <t>7.3.3 *</t>
   </si>
   <si>
     <t>Internal</t>
@@ -1139,7 +1173,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3.4 </t>
+    <t xml:space="preserve">7.3.4 </t>
   </si>
   <si>
     <t>Mixing Rule</t>
@@ -1151,7 +1185,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
   </si>
   <si>
-    <t>6.4</t>
+    <t>7.4</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
@@ -1160,7 +1194,7 @@
     <t>The impact of H2O on aerosols</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4.1 </t>
+    <t xml:space="preserve">7.4.1 </t>
   </si>
   <si>
     <t>Overview of the impact of h2o on aerosols in aerosol model.</t>
@@ -1169,7 +1203,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.overview</t>
   </si>
   <si>
-    <t>6.4.2 *</t>
+    <t>7.4.2 *</t>
   </si>
   <si>
     <t>Size</t>
@@ -1181,7 +1215,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
   </si>
   <si>
-    <t>6.4.3 *</t>
+    <t>7.4.3 *</t>
   </si>
   <si>
     <t>Internal Mixture</t>
@@ -1193,7 +1227,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
   </si>
   <si>
-    <t>6.4.4 *</t>
+    <t>7.4.4 *</t>
   </si>
   <si>
     <t>External Mixture</t>
@@ -1205,7 +1239,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
   </si>
   <si>
-    <t>6.5</t>
+    <t>7.5</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
@@ -1214,7 +1248,7 @@
     <t>Radiative scheme for aerosol</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5.1 </t>
+    <t xml:space="preserve">7.5.1 </t>
   </si>
   <si>
     <t>Overview of radiative scheme for aerosol in aerosol model.</t>
@@ -1223,13 +1257,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
   </si>
   <si>
-    <t>6.5.2 *</t>
+    <t>7.5.2 *</t>
   </si>
   <si>
     <t>Overview of radiative scheme</t>
   </si>
   <si>
-    <t>6.5.3 *</t>
+    <t>7.5.3 *</t>
   </si>
   <si>
     <t>Shortwave Bands</t>
@@ -1241,7 +1275,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
   </si>
   <si>
-    <t>6.5.4 *</t>
+    <t>7.5.4 *</t>
   </si>
   <si>
     <t>Longwave Bands</t>
@@ -1253,7 +1287,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
   </si>
   <si>
-    <t>6.6</t>
+    <t>7.6</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
@@ -1262,7 +1296,7 @@
     <t>Aerosol-cloud interactions</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6.1 </t>
+    <t xml:space="preserve">7.6.1 </t>
   </si>
   <si>
     <t>Overview of aerosol-cloud interactions in aerosol model.</t>
@@ -1271,13 +1305,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
-    <t>6.6.2 *</t>
+    <t>7.6.2 *</t>
   </si>
   <si>
     <t>Overview of aerosol-cloud interactions</t>
   </si>
   <si>
-    <t>6.6.3 *</t>
+    <t>7.6.3 *</t>
   </si>
   <si>
     <t>Twomey</t>
@@ -1289,7 +1323,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6.4 </t>
+    <t xml:space="preserve">7.6.4 </t>
   </si>
   <si>
     <t>Twomey Minimum Ccn</t>
@@ -1301,7 +1335,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
   </si>
   <si>
-    <t>6.6.5 *</t>
+    <t>7.6.5 *</t>
   </si>
   <si>
     <t>Drizzle</t>
@@ -1313,7 +1347,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
   </si>
   <si>
-    <t>6.6.6 *</t>
+    <t>7.6.6 *</t>
   </si>
   <si>
     <t>Cloud Lifetime</t>
@@ -1325,19 +1359,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
   </si>
   <si>
-    <t>6.6.7 *</t>
+    <t>7.6.7 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">8.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the model in aerosol model.</t>
@@ -1346,7 +1380,7 @@
     <t>cmip6.aerosol.model.name</t>
   </si>
   <si>
-    <t>7.1.2 *</t>
+    <t>8.1.2 *</t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol model</t>
@@ -1355,7 +1389,7 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
-    <t>7.1.3 *</t>
+    <t>8.1.3 *</t>
   </si>
   <si>
     <t>Processes</t>
@@ -1406,7 +1440,7 @@
     <t>Nucleation</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">8.1.4 </t>
   </si>
   <si>
     <t>Coupling</t>
@@ -1436,7 +1470,7 @@
     <t>Gas phase chemistry</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>8.1.5 *</t>
   </si>
   <si>
     <t>Gas Phase Precursors</t>
@@ -1472,7 +1506,7 @@
     <t>NOx</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>8.1.6 *</t>
   </si>
   <si>
     <t>Scheme Type</t>
@@ -1493,7 +1527,7 @@
     <t>Bin</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>8.1.7 *</t>
   </si>
   <si>
     <t>Bulk Scheme Species</t>
@@ -1545,7 +1579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1587,9 +1621,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1614,14 +1647,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1671,7 +1712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1688,10 +1729,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1703,11 +1741,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2003,7 +2047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD18"/>
+  <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2089,31 +2133,119 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD161"/>
   <sheetViews>
@@ -2128,898 +2260,898 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
+      <c r="A1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>23</v>
+      <c r="B2" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>33</v>
+      <c r="B10" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
+      <c r="A13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>38</v>
+      <c r="B15" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>40</v>
+      <c r="A18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>43</v>
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>44</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>51</v>
+      <c r="A23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>53</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>55</v>
+      <c r="A27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>57</v>
+      <c r="A28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>44</v>
+      <c r="B29" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>61</v>
+      <c r="A32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>64</v>
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>66</v>
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>69</v>
+      <c r="A37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>71</v>
+      <c r="A41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="B42" s="7" t="s">
-        <v>72</v>
+      <c r="B42" s="13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>74</v>
+      <c r="A44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>76</v>
+      <c r="A45" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>78</v>
+      <c r="A48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>80</v>
+      <c r="A49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>82</v>
+      <c r="A52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>84</v>
+      <c r="A53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="12" t="s">
-        <v>33</v>
+      <c r="B54" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="B55" s="11"/>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>86</v>
+      <c r="A58" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
-      <c r="B59" s="7" t="s">
-        <v>87</v>
+      <c r="B59" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>35</v>
+      <c r="A61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>90</v>
+      <c r="A62" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="11"/>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>92</v>
+      <c r="A65" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
+      <c r="A66" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="B67" s="11"/>
       <c r="AA67" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>99</v>
+      <c r="A69" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>101</v>
+      <c r="A70" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>103</v>
+      <c r="A73" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>105</v>
+      <c r="A74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>107</v>
+      <c r="A77" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>109</v>
+      <c r="A78" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>111</v>
+      <c r="A81" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>113</v>
+      <c r="A82" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AB83" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AD83" s="5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AE83" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AF83" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AG83" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AH83" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AI83" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>123</v>
+      <c r="A86" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="B87" s="7"/>
+      <c r="B87" s="13"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>35</v>
+      <c r="A89" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>126</v>
+      <c r="A90" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
     </row>
     <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>128</v>
+      <c r="A93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>130</v>
+      <c r="A94" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="12" t="s">
-        <v>33</v>
+      <c r="B95" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="24" customHeight="1">
       <c r="B96" s="11"/>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>132</v>
+      <c r="A98" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>134</v>
+      <c r="A99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="12" t="s">
-        <v>33</v>
+      <c r="B100" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="B101" s="11"/>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>136</v>
+      <c r="A103" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>138</v>
+      <c r="A104" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>140</v>
+      <c r="A108" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="7" t="s">
-        <v>141</v>
+      <c r="B109" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>35</v>
+      <c r="A111" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>144</v>
+      <c r="A112" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>25</v>
+      <c r="A115" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>147</v>
+      <c r="A116" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>149</v>
+      <c r="A119" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>151</v>
+      <c r="A120" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>153</v>
+      <c r="A123" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>155</v>
+      <c r="A124" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
       <c r="B125" s="11"/>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>157</v>
+      <c r="A127" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>159</v>
+      <c r="A128" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
       <c r="B129" s="11"/>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="A131" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>161</v>
+      <c r="A131" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>163</v>
+      <c r="A132" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="B133" s="11"/>
     </row>
     <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>165</v>
+      <c r="A136" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="B137" s="7" t="s">
-        <v>166</v>
+      <c r="B137" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="A139" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>35</v>
+      <c r="A139" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>169</v>
+      <c r="A140" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="B141" s="11"/>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>171</v>
+      <c r="A143" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>173</v>
+      <c r="A144" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="B145" s="12" t="s">
-        <v>38</v>
+      <c r="B145" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="178" customHeight="1">
       <c r="B146" s="11"/>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>175</v>
+      <c r="A148" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>177</v>
+      <c r="A149" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="12" t="s">
-        <v>33</v>
+      <c r="B150" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
       <c r="B151" s="11"/>
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>179</v>
+      <c r="A153" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>181</v>
+      <c r="A154" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="B155" s="12" t="s">
-        <v>33</v>
+      <c r="B155" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="B156" s="11"/>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>183</v>
+      <c r="A158" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>185</v>
+      <c r="A159" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="12" t="s">
-        <v>33</v>
+      <c r="B160" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="24" customHeight="1">
@@ -3071,7 +3203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
@@ -3086,229 +3218,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>187</v>
+      <c r="A1" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>188</v>
+      <c r="B2" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>191</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>194</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>196</v>
+      <c r="A13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>198</v>
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>200</v>
+      <c r="A18" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>201</v>
+      <c r="B19" s="13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>35</v>
+      <c r="A21" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>204</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
+      <c r="A25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>206</v>
+      <c r="A26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>149</v>
+      <c r="A29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>209</v>
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>153</v>
+      <c r="A33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>211</v>
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>157</v>
+      <c r="A37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>213</v>
+      <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>161</v>
+      <c r="A41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>216</v>
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3333,7 +3465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD25"/>
   <sheetViews>
@@ -3348,183 +3480,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>218</v>
+      <c r="A1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>219</v>
+      <c r="B2" s="13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>222</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>225</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>227</v>
+      <c r="A13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>229</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
       <c r="AA15" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>236</v>
+      <c r="A17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>238</v>
+      <c r="A18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>44</v>
+      <c r="B19" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
       <c r="AA20" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>243</v>
+      <c r="A22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>245</v>
+      <c r="A23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="B24" s="12" t="s">
-        <v>44</v>
+      <c r="B24" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3543,7 +3675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD49"/>
   <sheetViews>
@@ -3558,331 +3690,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>249</v>
+      <c r="A1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>250</v>
+      <c r="B2" s="13" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>253</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>256</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>92</v>
+      <c r="A13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>259</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>44</v>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>267</v>
+      <c r="A18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>269</v>
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>44</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>279</v>
+      <c r="A23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>281</v>
+      <c r="A24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="5" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>288</v>
+      <c r="A27" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>290</v>
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>33</v>
+      <c r="B29" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>292</v>
+      <c r="A32" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>294</v>
+      <c r="A33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="12" t="s">
-        <v>33</v>
+      <c r="B34" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>296</v>
+      <c r="A37" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>298</v>
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="12" t="s">
-        <v>33</v>
+      <c r="B39" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>300</v>
+      <c r="A42" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>302</v>
+      <c r="A43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="12" t="s">
-        <v>33</v>
+      <c r="B44" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>304</v>
+      <c r="A47" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>306</v>
+      <c r="A48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="24" customHeight="1">
@@ -3904,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD31"/>
   <sheetViews>
@@ -3919,170 +4051,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>308</v>
+      <c r="A1" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>309</v>
+      <c r="B2" s="13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>312</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>315</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>317</v>
+      <c r="A13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>319</v>
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>33</v>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>321</v>
+      <c r="A18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>323</v>
+      <c r="A19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>33</v>
+      <c r="B20" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="B21" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>325</v>
+      <c r="A23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>327</v>
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="B25" s="12" t="s">
-        <v>33</v>
+      <c r="B25" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>329</v>
+      <c r="A28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>331</v>
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="B30" s="12" t="s">
-        <v>33</v>
+      <c r="B30" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4093,7 +4225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD125"/>
   <sheetViews>
@@ -4108,641 +4240,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>333</v>
+      <c r="A1" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>334</v>
+      <c r="B2" s="13" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>337</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>340</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>342</v>
+      <c r="A14" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>343</v>
+      <c r="B15" s="13" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>35</v>
+      <c r="A17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>346</v>
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>348</v>
+      <c r="A21" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>351</v>
+      <c r="A22" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>353</v>
+      <c r="A25" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>355</v>
+      <c r="A26" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>357</v>
+      <c r="A29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>359</v>
+      <c r="A30" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>361</v>
+      <c r="A34" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="7"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>35</v>
+      <c r="A37" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>363</v>
+      <c r="A38" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>365</v>
+      <c r="A41" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>367</v>
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>369</v>
+      <c r="A45" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>371</v>
+      <c r="A46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>373</v>
+      <c r="A49" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>375</v>
+      <c r="A50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>377</v>
+      <c r="A54" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="7" t="s">
-        <v>378</v>
+      <c r="B55" s="13" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>35</v>
+      <c r="A57" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>381</v>
+      <c r="A58" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>383</v>
+      <c r="A61" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>385</v>
+      <c r="A62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="11"/>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>387</v>
+      <c r="A65" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>389</v>
+      <c r="A66" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>391</v>
+      <c r="A69" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>393</v>
+      <c r="A70" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>395</v>
+      <c r="A74" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="7" t="s">
-        <v>396</v>
+      <c r="B75" s="13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>35</v>
+      <c r="A77" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>399</v>
+      <c r="A78" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>35</v>
+      <c r="A81" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>399</v>
+      <c r="A82" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="12" t="s">
-        <v>38</v>
+      <c r="B83" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="178" customHeight="1">
       <c r="B84" s="11"/>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>403</v>
+      <c r="A86" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>405</v>
+      <c r="A87" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="B88" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>407</v>
+      <c r="A90" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>409</v>
+      <c r="A91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
       <c r="B92" s="11"/>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>411</v>
+      <c r="A95" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="7" t="s">
-        <v>412</v>
+      <c r="B96" s="13" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>35</v>
+      <c r="A98" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>415</v>
+      <c r="A99" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>35</v>
+      <c r="A102" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>415</v>
+      <c r="A103" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="12" t="s">
-        <v>38</v>
+      <c r="B104" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="178" customHeight="1">
       <c r="B105" s="11"/>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>419</v>
+      <c r="A107" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>421</v>
+      <c r="A108" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
       <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>423</v>
+      <c r="A111" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>425</v>
+      <c r="A112" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>427</v>
+      <c r="A115" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>429</v>
+      <c r="A116" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>431</v>
+      <c r="A119" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>433</v>
+      <c r="A120" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>407</v>
+      <c r="A123" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>435</v>
+      <c r="A124" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -4803,7 +4935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD36"/>
   <sheetViews>
@@ -4818,344 +4950,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>437</v>
+      <c r="B2" s="13" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>25</v>
+      <c r="A4" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>440</v>
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>443</v>
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>38</v>
+      <c r="B10" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>445</v>
+      <c r="A13" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>447</v>
+      <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>44</v>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AL16" s="5" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>462</v>
+      <c r="A18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>464</v>
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>44</v>
+      <c r="B20" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>472</v>
+      <c r="A23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>474</v>
+      <c r="A24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
-      <c r="B25" s="12" t="s">
-        <v>44</v>
+      <c r="B25" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="B26" s="11"/>
       <c r="AA26" s="5" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>484</v>
+      <c r="A28" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>486</v>
+      <c r="A29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
-      <c r="B30" s="12" t="s">
-        <v>44</v>
+      <c r="B30" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
       <c r="B31" s="11"/>
       <c r="AA31" s="5" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>491</v>
+      <c r="A33" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>493</v>
+      <c r="A34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="24" customHeight="1">
-      <c r="B35" s="12" t="s">
-        <v>44</v>
+      <c r="B35" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="24" customHeight="1">
       <c r="B36" s="11"/>
       <c r="AA36" s="5" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="AB36" s="5" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="AD36" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AE36" s="5" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="AF36" s="5" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="AG36" s="5" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="AH36" s="5" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="AI36" s="5" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="AK36" s="5" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="AL36" s="5" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="AM36" s="5" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="AN36" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/noresm2-mm/cmip6_ncc_noresm2-mm_aerosol.xlsx
+++ b/cmip6/models/noresm2-mm/cmip6_ncc_noresm2-mm_aerosol.xlsx
@@ -45,7 +45,7 @@
     <t>NORESM2-MM</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Aerosol</t>

--- a/cmip6/models/noresm2-mm/cmip6_ncc_noresm2-mm_aerosol.xlsx
+++ b/cmip6/models/noresm2-mm/cmip6_ncc_noresm2-mm_aerosol.xlsx
@@ -8,21 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Emissions" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
-    <sheet name="8. Model" sheetId="9" r:id="rId9"/>
+    <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="3. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="4. Emissions" sheetId="6" r:id="rId6"/>
+    <sheet name="5. Concentrations" sheetId="7" r:id="rId7"/>
+    <sheet name="6. Optical Radiative Properties" sheetId="8" r:id="rId8"/>
+    <sheet name="7. Model" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="495">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -51,31 +51,28 @@
     <t>Aerosol</t>
   </si>
   <si>
-    <t>Sub-Topics</t>
-  </si>
-  <si>
-    <t>1. Parties &amp; Citations</t>
-  </si>
-  <si>
-    <t>2. Key Properties</t>
-  </si>
-  <si>
-    <t>3. Grid</t>
-  </si>
-  <si>
-    <t>4. Transport</t>
-  </si>
-  <si>
-    <t>5. Emissions</t>
-  </si>
-  <si>
-    <t>6. Concentrations</t>
-  </si>
-  <si>
-    <t>7. Optical Radiative Properties</t>
-  </si>
-  <si>
-    <t>8. Model</t>
+    <t>Sub-Processes</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Transport</t>
+  </si>
+  <si>
+    <t>4. Emissions</t>
+  </si>
+  <si>
+    <t>5. Concentrations</t>
+  </si>
+  <si>
+    <t>6. Optical Radiative Properties</t>
+  </si>
+  <si>
+    <t>7. Model</t>
   </si>
   <si>
     <t>How To Use</t>
@@ -96,58 +93,76 @@
     <t>1.0.2</t>
   </si>
   <si>
-    <t>1.</t>
+    <t>Spreadsheet Generator Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Initialised By</t>
+  </si>
+  <si>
+    <t>Internal notes</t>
   </si>
   <si>
     <t>Parties &amp; Citations</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Parties</t>
+    <t>NOTE: Multiple entries are allowed.  To enter a new row, copy &amp; paste an existing row, and edit accordingly.</t>
+  </si>
+  <si>
+    <t>Responsible Parties</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-responsible-party-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter responsible party identifiers below, one identifier per line.  You can optionally specify a role.</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-citation-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter citation identifiers below, one identifier per line.  You can optionally specify a process.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Key Properties</t>
+  </si>
+  <si>
+    <t>Key properties of the aerosol model</t>
+  </si>
+  <si>
+    <t>1.1.1.1 *</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
-  </si>
-  <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Citations</t>
-  </si>
-  <si>
-    <t>Mnemonic references to citations</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Key Properties</t>
-  </si>
-  <si>
-    <t>Key properties of the aerosol model</t>
-  </si>
-  <si>
-    <t>2.1.1 *</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Name of aerosol model code</t>
   </si>
   <si>
     <t>cmip6.aerosol.key_properties.name</t>
   </si>
   <si>
-    <t>2.1.2 *</t>
+    <t>1.1.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -162,7 +177,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>1.1.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -177,7 +192,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>2.1.4 *</t>
+    <t>1.1.1.4 *</t>
   </si>
   <si>
     <t>Scheme Scope</t>
@@ -204,10 +219,10 @@
     <t>Whole atmosphere</t>
   </si>
   <si>
-    <t>Other: document to the right</t>
-  </si>
-  <si>
-    <t>2.1.5 *</t>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -219,7 +234,7 @@
     <t>cmip6.aerosol.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>2.1.6 *</t>
+    <t>1.1.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -237,7 +252,7 @@
     <t>3D number concentration for aerosols</t>
   </si>
   <si>
-    <t>2.1.7 *</t>
+    <t>1.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -252,7 +267,7 @@
     <t>cmip6.aerosol.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>2.1.8 *</t>
+    <t>1.1.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -267,7 +282,7 @@
     <t>cmip6.aerosol.key_properties.family_approach</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -276,7 +291,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -288,7 +303,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.2 </t>
+    <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -300,7 +315,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -312,7 +327,7 @@
     <t>cmip6.aerosol.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -321,16 +336,7 @@
     <t>Physical properties of seawater in ocean</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of physical properties of seawater in ocean in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.timestep_framework.overview</t>
-  </si>
-  <si>
-    <t>2.3.2 *</t>
+    <t>1.3.1.1 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -351,7 +357,7 @@
     <t>Specific timestepping (integrated)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.3 </t>
+    <t xml:space="preserve">1.3.1.2 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -363,7 +369,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.4 </t>
+    <t xml:space="preserve">1.3.1.3 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -375,7 +381,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t>2.3.5 *</t>
+    <t>1.3.1.4 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -387,7 +393,7 @@
     <t>cmip6.aerosol.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>2.3.6 *</t>
+    <t>1.3.1.5 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -423,22 +429,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Meteorological Forcings</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.1 </t>
-  </si>
-  <si>
-    <t>Overview of  in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.meteorological_forcings.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.2 </t>
+    <t xml:space="preserve">1.4.1.1 </t>
   </si>
   <si>
     <t>Variables 3D</t>
@@ -450,7 +447,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_3D</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
     <t>Variables 2D</t>
@@ -462,7 +459,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.variables_2D</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.4 </t>
+    <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
     <t>Frequency</t>
@@ -474,7 +471,7 @@
     <t>cmip6.aerosol.key_properties.meteorological_forcings.frequency</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Resolution</t>
@@ -483,16 +480,7 @@
     <t>Resolution in the aerosol model grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the aerosol model grid in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.resolution.overview</t>
-  </si>
-  <si>
-    <t>2.5.2 *</t>
+    <t>1.5.1.1 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -501,7 +489,7 @@
     <t>cmip6.aerosol.key_properties.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.3 </t>
+    <t xml:space="preserve">1.5.1.2 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -513,7 +501,7 @@
     <t>cmip6.aerosol.key_properties.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.4 </t>
+    <t xml:space="preserve">1.5.1.3 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -525,7 +513,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.5 </t>
+    <t xml:space="preserve">1.5.1.4 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -537,7 +525,7 @@
     <t>cmip6.aerosol.key_properties.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>2.5.6 *</t>
+    <t>1.5.1.5 *</t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -549,7 +537,7 @@
     <t>cmip6.aerosol.key_properties.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>2.6</t>
+    <t>1.6.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -558,16 +546,7 @@
     <t>Tuning methodology for aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.1 </t>
-  </si>
-  <si>
-    <t>Overview of tuning methodology for aerosol model in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.key_properties.tuning_applied.overview</t>
-  </si>
-  <si>
-    <t>2.6.2 *</t>
+    <t>1.6.1.1 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -579,7 +558,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.3 </t>
+    <t xml:space="preserve">1.6.1.2 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -591,7 +570,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.4 </t>
+    <t xml:space="preserve">1.6.1.3 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -603,7 +582,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6.5 </t>
+    <t xml:space="preserve">1.6.1.4 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -615,7 +594,7 @@
     <t>cmip6.aerosol.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -624,7 +603,7 @@
     <t>Aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">2.1.1.1 </t>
   </si>
   <si>
     <t>Name of grid in aerosol model.</t>
@@ -633,7 +612,7 @@
     <t>cmip6.aerosol.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in aerosol model.</t>
@@ -642,7 +621,7 @@
     <t>cmip6.aerosol.grid.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>2.1.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -654,7 +633,7 @@
     <t>cmip6.aerosol.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -663,22 +642,13 @@
     <t>Resolution in the atmospheric aerosol grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the atmospheric aerosol grid in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.grid.resolution.overview</t>
-  </si>
-  <si>
-    <t>3.2.2 *</t>
+    <t>2.2.1.1 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.3 </t>
+    <t xml:space="preserve">2.2.1.2 </t>
   </si>
   <si>
     <t>Expression quoted for gross comparisons of resolution, e.g. 50km or 0.1 degrees etc.</t>
@@ -687,19 +657,19 @@
     <t>cmip6.aerosol.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.4 </t>
+    <t xml:space="preserve">2.2.1.3 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.5 </t>
+    <t xml:space="preserve">2.2.1.4 </t>
   </si>
   <si>
     <t>cmip6.aerosol.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t>3.2.6 *</t>
+    <t>2.2.1.5 *</t>
   </si>
   <si>
     <t>Set to true if grid resolution changes during execution.</t>
@@ -708,7 +678,7 @@
     <t>cmip6.aerosol.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -717,7 +687,7 @@
     <t>Aerosol transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">3.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in aerosol model.</t>
@@ -726,7 +696,7 @@
     <t>cmip6.aerosol.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol transport in aerosol model.</t>
@@ -735,7 +705,7 @@
     <t>cmip6.aerosol.transport.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>3.1.1.3 *</t>
   </si>
   <si>
     <t>Scheme</t>
@@ -762,7 +732,7 @@
     <t>Specific transport scheme (lagrangian)</t>
   </si>
   <si>
-    <t>4.1.4 *</t>
+    <t>3.1.1.4 *</t>
   </si>
   <si>
     <t>Mass Conservation Scheme</t>
@@ -783,7 +753,7 @@
     <t>Gradients monotonicity</t>
   </si>
   <si>
-    <t>4.1.5 *</t>
+    <t>3.1.1.5 *</t>
   </si>
   <si>
     <t>Convention</t>
@@ -801,7 +771,7 @@
     <t>Vertical velocities connected to tracers</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Emissions</t>
@@ -810,7 +780,7 @@
     <t>Atmospheric aerosol emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">4.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions in aerosol model.</t>
@@ -819,7 +789,7 @@
     <t>cmip6.aerosol.emissions.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">4.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol emissions in aerosol model.</t>
@@ -828,7 +798,7 @@
     <t>cmip6.aerosol.emissions.overview</t>
   </si>
   <si>
-    <t>5.1.3 *</t>
+    <t>4.1.1.3 *</t>
   </si>
   <si>
     <t>Method used to define aerosol species (several methods allowed because the different species may not use the same method).</t>
@@ -855,7 +825,7 @@
     <t>Interactive above surface</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.4 </t>
+    <t xml:space="preserve">4.1.1.4 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -891,7 +861,7 @@
     <t>Anthropogenic</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.5 </t>
+    <t xml:space="preserve">4.1.1.5 </t>
   </si>
   <si>
     <t>Prescribed Climatology</t>
@@ -918,7 +888,7 @@
     <t>Daily</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.6 </t>
+    <t xml:space="preserve">4.1.1.6 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -930,7 +900,7 @@
     <t>cmip6.aerosol.emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.7 </t>
+    <t xml:space="preserve">4.1.1.7 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -942,7 +912,7 @@
     <t>cmip6.aerosol.emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.8 </t>
+    <t xml:space="preserve">4.1.1.8 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -954,7 +924,7 @@
     <t>cmip6.aerosol.emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.9 </t>
+    <t xml:space="preserve">4.1.1.9 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -966,7 +936,7 @@
     <t>cmip6.aerosol.emissions.other_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.10 </t>
+    <t xml:space="preserve">4.1.1.10 </t>
   </si>
   <si>
     <t>Other Method Characteristics</t>
@@ -978,7 +948,7 @@
     <t>cmip6.aerosol.emissions.other_method_characteristics</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <t>Concentrations</t>
@@ -987,7 +957,7 @@
     <t>Atmospheric aerosol concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">5.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the concentrations in aerosol model.</t>
@@ -996,7 +966,7 @@
     <t>cmip6.aerosol.concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol concentrations in aerosol model.</t>
@@ -1005,7 +975,7 @@
     <t>cmip6.aerosol.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">5.1.1.3 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1017,7 +987,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.4 </t>
+    <t xml:space="preserve">5.1.1.4 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1029,7 +999,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.5 </t>
+    <t xml:space="preserve">5.1.1.5 </t>
   </si>
   <si>
     <t>Prescribed Fields Mmr</t>
@@ -1041,7 +1011,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_mmr</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.6 </t>
+    <t xml:space="preserve">5.1.1.6 </t>
   </si>
   <si>
     <t>Prescribed Fields Aod Plus Ccn</t>
@@ -1053,7 +1023,7 @@
     <t>cmip6.aerosol.concentrations.prescribed_fields_aod_plus_ccn</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties</t>
@@ -1062,7 +1032,7 @@
     <t>Aerosol optical and radiative properties</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">6.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the optical radiative properties in aerosol model.</t>
@@ -1071,7 +1041,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">6.1.1.2 </t>
   </si>
   <si>
     <t>Overview of aerosol optical and radiative properties in aerosol model.</t>
@@ -1080,7 +1050,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.overview</t>
   </si>
   <si>
-    <t>7.2</t>
+    <t>6.2.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Absorption</t>
@@ -1089,16 +1059,7 @@
     <t>Absortion properties in aerosol scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of absortion properties in aerosol scheme in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.absorption.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.2 </t>
+    <t xml:space="preserve">6.2.1.1 </t>
   </si>
   <si>
     <t>Black Carbon</t>
@@ -1113,7 +1074,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.black_carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.3 </t>
+    <t xml:space="preserve">6.2.1.2 </t>
   </si>
   <si>
     <t>Dust</t>
@@ -1125,7 +1086,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.dust</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.4 </t>
+    <t xml:space="preserve">6.2.1.3 </t>
   </si>
   <si>
     <t>Organics</t>
@@ -1137,19 +1098,13 @@
     <t>cmip6.aerosol.optical_radiative_properties.absorption.organics</t>
   </si>
   <si>
-    <t>7.3</t>
+    <t>6.3.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Mixtures</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3.1 </t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.mixtures.overview</t>
-  </si>
-  <si>
-    <t>7.3.2 *</t>
+    <t>6.3.1.1 *</t>
   </si>
   <si>
     <t>External</t>
@@ -1161,7 +1116,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.external</t>
   </si>
   <si>
-    <t>7.3.3 *</t>
+    <t>6.3.1.2 *</t>
   </si>
   <si>
     <t>Internal</t>
@@ -1173,7 +1128,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.internal</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3.4 </t>
+    <t xml:space="preserve">6.3.1.3 </t>
   </si>
   <si>
     <t>Mixing Rule</t>
@@ -1185,7 +1140,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.mixtures.mixing_rule</t>
   </si>
   <si>
-    <t>7.4</t>
+    <t>6.4.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Impact Of H2o</t>
@@ -1194,16 +1149,7 @@
     <t>The impact of H2O on aerosols</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4.1 </t>
-  </si>
-  <si>
-    <t>Overview of the impact of h2o on aerosols in aerosol model.</t>
-  </si>
-  <si>
-    <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.overview</t>
-  </si>
-  <si>
-    <t>7.4.2 *</t>
+    <t>6.4.1.1 *</t>
   </si>
   <si>
     <t>Size</t>
@@ -1215,7 +1161,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.size</t>
   </si>
   <si>
-    <t>7.4.3 *</t>
+    <t>6.4.1.2 *</t>
   </si>
   <si>
     <t>Internal Mixture</t>
@@ -1227,7 +1173,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.internal_mixture</t>
   </si>
   <si>
-    <t>7.4.4 *</t>
+    <t>6.4.1.3 *</t>
   </si>
   <si>
     <t>External Mixture</t>
@@ -1239,7 +1185,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.impact_of_h2o.external_mixture</t>
   </si>
   <si>
-    <t>7.5</t>
+    <t>6.5.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Radiative Scheme</t>
@@ -1248,22 +1194,16 @@
     <t>Radiative scheme for aerosol</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of radiative scheme for aerosol in aerosol model.</t>
+    <t>6.5.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of radiative scheme</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.overview</t>
   </si>
   <si>
-    <t>7.5.2 *</t>
-  </si>
-  <si>
-    <t>Overview of radiative scheme</t>
-  </si>
-  <si>
-    <t>7.5.3 *</t>
+    <t>6.5.1.2 *</t>
   </si>
   <si>
     <t>Shortwave Bands</t>
@@ -1275,7 +1215,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.shortwave_bands</t>
   </si>
   <si>
-    <t>7.5.4 *</t>
+    <t>6.5.1.3 *</t>
   </si>
   <si>
     <t>Longwave Bands</t>
@@ -1287,7 +1227,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.radiative_scheme.longwave_bands</t>
   </si>
   <si>
-    <t>7.6</t>
+    <t>6.6.1</t>
   </si>
   <si>
     <t>Optical Radiative Properties --&gt; Cloud Interactions</t>
@@ -1296,22 +1236,16 @@
     <t>Aerosol-cloud interactions</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6.1 </t>
-  </si>
-  <si>
-    <t>Overview of aerosol-cloud interactions in aerosol model.</t>
+    <t>6.6.1.1 *</t>
+  </si>
+  <si>
+    <t>Overview of aerosol-cloud interactions</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.overview</t>
   </si>
   <si>
-    <t>7.6.2 *</t>
-  </si>
-  <si>
-    <t>Overview of aerosol-cloud interactions</t>
-  </si>
-  <si>
-    <t>7.6.3 *</t>
+    <t>6.6.1.2 *</t>
   </si>
   <si>
     <t>Twomey</t>
@@ -1323,7 +1257,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6.4 </t>
+    <t xml:space="preserve">6.6.1.3 </t>
   </si>
   <si>
     <t>Twomey Minimum Ccn</t>
@@ -1335,7 +1269,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.twomey_minimum_ccn</t>
   </si>
   <si>
-    <t>7.6.5 *</t>
+    <t>6.6.1.4 *</t>
   </si>
   <si>
     <t>Drizzle</t>
@@ -1347,7 +1281,7 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.drizzle</t>
   </si>
   <si>
-    <t>7.6.6 *</t>
+    <t>6.6.1.5 *</t>
   </si>
   <si>
     <t>Cloud Lifetime</t>
@@ -1359,19 +1293,19 @@
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.cloud_lifetime</t>
   </si>
   <si>
-    <t>7.6.7 *</t>
+    <t>6.6.1.6 *</t>
   </si>
   <si>
     <t>cmip6.aerosol.optical_radiative_properties.cloud_interactions.longwave_bands</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>7.1.1</t>
   </si>
   <si>
     <t>Aerosol model</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">7.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the model in aerosol model.</t>
@@ -1380,7 +1314,7 @@
     <t>cmip6.aerosol.model.name</t>
   </si>
   <si>
-    <t>8.1.2 *</t>
+    <t>7.1.1.2 *</t>
   </si>
   <si>
     <t>Overview of atmospheric aerosol model</t>
@@ -1389,7 +1323,7 @@
     <t>cmip6.aerosol.model.overview</t>
   </si>
   <si>
-    <t>8.1.3 *</t>
+    <t>7.1.1.3 *</t>
   </si>
   <si>
     <t>Processes</t>
@@ -1440,7 +1374,7 @@
     <t>Nucleation</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.4 </t>
+    <t xml:space="preserve">7.1.1.4 </t>
   </si>
   <si>
     <t>Coupling</t>
@@ -1470,7 +1404,7 @@
     <t>Gas phase chemistry</t>
   </si>
   <si>
-    <t>8.1.5 *</t>
+    <t>7.1.1.5 *</t>
   </si>
   <si>
     <t>Gas Phase Precursors</t>
@@ -1506,7 +1440,7 @@
     <t>NOx</t>
   </si>
   <si>
-    <t>8.1.6 *</t>
+    <t>7.1.1.6 *</t>
   </si>
   <si>
     <t>Scheme Type</t>
@@ -1527,7 +1461,7 @@
     <t>Bin</t>
   </si>
   <si>
-    <t>8.1.7 *</t>
+    <t>7.1.1.7 *</t>
   </si>
   <si>
     <t>Bulk Scheme Species</t>
@@ -1579,7 +1513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,13 +1536,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1627,6 +1567,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
@@ -1634,21 +1581,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1661,8 +1595,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1712,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1726,31 +1673,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2047,7 +1997,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD20"/>
+  <dimension ref="A1:XFD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2133,39 +2083,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1"/>
-    <hyperlink ref="B18" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2173,320 +2138,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"Top Level,Key Properties,Grid,Transport,Emissions,Concentrations,Optical Radiative Properties,Model"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD161"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>44</v>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>45</v>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>49</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>50</v>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>52</v>
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>55</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>60</v>
+      <c r="AA21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>62</v>
+      <c r="A23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>64</v>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>66</v>
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>68</v>
+      <c r="A28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
-      <c r="AA30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC30" s="5" t="s">
-        <v>60</v>
+      <c r="AA30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>72</v>
+      <c r="A32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>75</v>
+      <c r="A33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
+      <c r="A36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>80</v>
+      <c r="A37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -2494,668 +2482,580 @@
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>85</v>
+      <c r="A44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>87</v>
+      <c r="A45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="B54" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
+    <row r="52" spans="1:30" ht="24" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="24" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="24" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11"/>
     </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
+    <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="11"/>
-    </row>
-    <row r="65" spans="1:30" ht="24" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30" ht="24" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" ht="24" customHeight="1">
+      <c r="AA63" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD63" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" ht="24" customHeight="1">
       <c r="B67" s="11"/>
-      <c r="AA67" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB67" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC67" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD67" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="24" customHeight="1">
+    </row>
+    <row r="69" spans="1:35" ht="24" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" ht="24" customHeight="1">
+      <c r="A70" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="24" customHeight="1">
       <c r="B71" s="11"/>
     </row>
-    <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" ht="24" customHeight="1">
+    <row r="73" spans="1:35" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" ht="24" customHeight="1">
+      <c r="A74" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
-    <row r="77" spans="1:30" ht="24" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
+    <row r="77" spans="1:35" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="24" customHeight="1">
+      <c r="A78" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" ht="24" customHeight="1">
       <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
-      <c r="AA83" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB83" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC83" s="5" t="s">
+      <c r="AA79" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AD83" s="5" t="s">
+      <c r="AB79" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AE83" s="5" t="s">
+      <c r="AC79" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AF83" s="5" t="s">
+      <c r="AD79" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="AG83" s="5" t="s">
+      <c r="AE79" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="AH83" s="5" t="s">
+      <c r="AF79" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="AI83" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="12" t="s">
+      <c r="AG79" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="AH79" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="87" spans="1:35" ht="24" customHeight="1">
-      <c r="B87" s="13"/>
-    </row>
-    <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="7" t="s">
+      <c r="AI79" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>28</v>
+      <c r="B82" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:35" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-    </row>
-    <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B98" s="7" t="s">
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="9" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="B92" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>145</v>
       </c>
+      <c r="B95" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="10" t="s">
-        <v>45</v>
+      <c r="A100" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
+      <c r="B101" s="13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>147</v>
+      <c r="A103" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>149</v>
+      <c r="A104" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
     </row>
+    <row r="107" spans="1:3" ht="24" customHeight="1">
+      <c r="A107" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>151</v>
+      <c r="A108" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B109" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>47</v>
+      <c r="A111" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>155</v>
+      <c r="A112" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
       <c r="B113" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>38</v>
+      <c r="A115" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>158</v>
+      <c r="A116" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
       <c r="B117" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>160</v>
+      <c r="A119" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>162</v>
+      <c r="A120" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="11"/>
     </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>166</v>
+      <c r="A124" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="11"/>
+      <c r="B125" s="13" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
-      <c r="A127" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>168</v>
+      <c r="A127" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="24" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>170</v>
+      <c r="A128" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="B129" s="11"/>
-    </row>
-    <row r="131" spans="1:3" ht="24" customHeight="1">
-      <c r="A131" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="B129" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="178" customHeight="1">
+      <c r="B130" s="11"/>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>78</v>
+      <c r="A132" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="B133" s="11"/>
-    </row>
-    <row r="136" spans="1:3" ht="24" customHeight="1">
-      <c r="A136" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>176</v>
-      </c>
+      <c r="A133" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24" customHeight="1">
+      <c r="B134" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24" customHeight="1">
+      <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="B137" s="13" t="s">
-        <v>177</v>
+      <c r="A137" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24" customHeight="1">
+      <c r="A138" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="A139" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>47</v>
+      <c r="B139" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="A140" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="24" customHeight="1">
-      <c r="B141" s="11"/>
+      <c r="B140" s="11"/>
+    </row>
+    <row r="142" spans="1:3" ht="24" customHeight="1">
+      <c r="A142" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="A143" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>182</v>
+      <c r="A143" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
-      <c r="A144" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="B145" s="10" t="s">
+      <c r="B144" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="178" customHeight="1">
-      <c r="B146" s="11"/>
-    </row>
-    <row r="148" spans="1:3" ht="24" customHeight="1">
-      <c r="A148" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="B150" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="11"/>
-    </row>
-    <row r="153" spans="1:3" ht="24" customHeight="1">
-      <c r="A153" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="B155" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="11"/>
-    </row>
-    <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="A158" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="B160" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="24" customHeight="1">
-      <c r="B161" s="11"/>
+    <row r="145" spans="2:2" ht="24" customHeight="1">
+      <c r="B145" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="13">
@@ -3171,8 +3071,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AD67</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+      <formula1>AA63:AD63</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>0</formula1>
@@ -3180,22 +3083,19 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+      <formula1>AA79:AI79</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
-      <formula1>AA83:AI83</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B129">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B133">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3205,97 +3105,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>202</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>205</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>207</v>
+      <c r="A13" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>209</v>
+      <c r="A14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3303,161 +3203,139 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>47</v>
+      <c r="A21" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>215</v>
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>38</v>
+      <c r="A25" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>217</v>
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>220</v>
+      <c r="A30" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>222</v>
+      <c r="C34" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>224</v>
+      <c r="A38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3474,189 +3352,189 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>233</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:31" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>236</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:31" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>238</v>
+      <c r="A13" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>240</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="24" customHeight="1">
       <c r="B15" s="11"/>
-      <c r="AA15" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AE15" s="5" t="s">
-        <v>245</v>
+      <c r="AA15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>247</v>
+      <c r="A17" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>249</v>
+      <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="B19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="11"/>
-      <c r="AA20" s="5" t="s">
+      <c r="AA20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC20" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AB20" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>60</v>
+      <c r="AD20" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE20" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>254</v>
+      <c r="A22" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>256</v>
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
-      <c r="AA25" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>60</v>
+      <c r="AA25" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3684,337 +3562,337 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>264</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>267</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:33" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>103</v>
+      <c r="A13" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>270</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>60</v>
+      <c r="AA16" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>278</v>
+      <c r="A18" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>280</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
+      <c r="AA21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="24" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="24" customHeight="1">
+      <c r="A24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="AB21" s="5" t="s">
+      <c r="C24" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="11"/>
-      <c r="AA25" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE25" s="5" t="s">
-        <v>297</v>
+      <c r="AA25" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>299</v>
+      <c r="A27" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>301</v>
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="B29" s="10" t="s">
-        <v>45</v>
+      <c r="B29" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="11"/>
     </row>
     <row r="32" spans="1:35" ht="24" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>303</v>
+      <c r="A32" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>305</v>
+      <c r="A33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>45</v>
+      <c r="B34" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>307</v>
+      <c r="A37" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>309</v>
+      <c r="A38" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="10" t="s">
-        <v>45</v>
+      <c r="B39" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>311</v>
+      <c r="A42" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>313</v>
+      <c r="A43" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="10" t="s">
-        <v>45</v>
+      <c r="B44" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="B45" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>315</v>
+      <c r="A47" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>317</v>
+      <c r="A48" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="24" customHeight="1">
@@ -4045,176 +3923,176 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>323</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>326</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>328</v>
+      <c r="A13" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>330</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>45</v>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>332</v>
+      <c r="A18" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>334</v>
+      <c r="A19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="10" t="s">
-        <v>45</v>
+      <c r="B20" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="B21" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>336</v>
+      <c r="A23" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>338</v>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="B25" s="10" t="s">
-        <v>45</v>
+      <c r="B25" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="B26" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>340</v>
+      <c r="A28" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>342</v>
+      <c r="A29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="B30" s="10" t="s">
-        <v>45</v>
+      <c r="B30" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -4227,75 +4105,75 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD125"/>
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>348</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>351</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -4303,585 +4181,479 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>47</v>
+      <c r="A17" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>357</v>
+      <c r="A18" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>359</v>
+      <c r="A21" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>362</v>
+      <c r="A22" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>364</v>
+      <c r="A25" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>366</v>
+      <c r="A26" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24" customHeight="1">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="B35" s="13"/>
-    </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>376</v>
+      <c r="A41" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>378</v>
+      <c r="A42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11"/>
     </row>
-    <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>382</v>
+      <c r="A46" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="B47" s="11"/>
+      <c r="B47" s="13" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>384</v>
+      <c r="A49" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>386</v>
+      <c r="A50" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="B51" s="11"/>
     </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>388</v>
+      <c r="A54" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="B55" s="13" t="s">
-        <v>389</v>
-      </c>
+      <c r="B55" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>47</v>
+      <c r="A57" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>392</v>
+      <c r="A58" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="7" t="s">
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
+      <c r="B68" s="11"/>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="8" t="s">
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-    </row>
-    <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="7" t="s">
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="8" t="s">
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-    </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B79" s="12" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="B80" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="B84" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="178" customHeight="1">
+      <c r="B85" s="11"/>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="178" customHeight="1">
-      <c r="B84" s="11"/>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="7" t="s">
+      <c r="B92" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C92" s="10" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="A87" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="9" t="s">
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="7" t="s">
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C96" s="10" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="A91" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="9" t="s">
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="24" customHeight="1">
-      <c r="B92" s="11"/>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="A95" s="12" t="s">
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="C100" s="10" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="13" t="s">
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="11"/>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="7" t="s">
+      <c r="B103" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="11"/>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1">
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
       <c r="B105" s="11"/>
-    </row>
-    <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
-    </row>
-    <row r="111" spans="1:3" ht="24" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="B113" s="11"/>
-    </row>
-    <row r="115" spans="1:3" ht="24" customHeight="1">
-      <c r="A115" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="24" customHeight="1">
-      <c r="A116" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="11"/>
-    </row>
-    <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="24" customHeight="1">
-      <c r="A120" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="B121" s="11"/>
-    </row>
-    <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="A123" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="24" customHeight="1">
-      <c r="A124" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="B125" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="15">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>-1000000.0</formula1>
+      <formula2>1000000.0</formula2>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
@@ -4890,44 +4662,40 @@
       <formula1>-1000000.0</formula1>
       <formula2>1000000.0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>-1000000.0</formula1>
-      <formula2>1000000.0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B113">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B97">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B105">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -4944,14 +4712,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -4959,335 +4727,335 @@
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
+      <c r="A4" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>451</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:39" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>47</v>
+      <c r="A8" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>454</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>50</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:39" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>456</v>
+      <c r="A13" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>458</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="AL16" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AM16" s="5" t="s">
-        <v>471</v>
+      <c r="AA16" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>473</v>
+      <c r="A18" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>475</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:35" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>60</v>
+      <c r="AA21" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>483</v>
+      <c r="A23" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>485</v>
+      <c r="A24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="24" customHeight="1">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="24" customHeight="1">
       <c r="B26" s="11"/>
-      <c r="AA26" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="AD26" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AE26" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF26" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="AG26" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH26" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="AI26" s="5" t="s">
-        <v>60</v>
+      <c r="AA26" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD26" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AI26" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="24" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>495</v>
+      <c r="A28" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>497</v>
+      <c r="A29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="24" customHeight="1">
       <c r="B30" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="24" customHeight="1">
       <c r="B31" s="11"/>
-      <c r="AA31" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AD31" s="5" t="s">
-        <v>60</v>
+      <c r="AA31" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>502</v>
+      <c r="A33" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>504</v>
+      <c r="A34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="24" customHeight="1">
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="24" customHeight="1">
       <c r="B36" s="11"/>
-      <c r="AA36" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="AG36" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AH36" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="AI36" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="AM36" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="AN36" s="5" t="s">
-        <v>60</v>
+      <c r="AA36" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH36" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ36" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AK36" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AL36" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN36" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/cmip6/models/noresm2-mm/cmip6_ncc_noresm2-mm_aerosol.xlsx
+++ b/cmip6/models/noresm2-mm/cmip6_ncc_noresm2-mm_aerosol.xlsx
@@ -207,16 +207,16 @@
     <t>cmip6.aerosol.key_properties.scheme_scope</t>
   </si>
   <si>
-    <t>Troposphere</t>
-  </si>
-  <si>
-    <t>Stratosphere</t>
-  </si>
-  <si>
-    <t>Mesosphere</t>
-  </si>
-  <si>
-    <t>Whole atmosphere</t>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>mesosphere</t>
+  </si>
+  <si>
+    <t>whole atmosphere</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
